--- a/biology/Zoologie/Hydrophis_gracilis/Hydrophis_gracilis.xlsx
+++ b/biology/Zoologie/Hydrophis_gracilis/Hydrophis_gracilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophis gracilis ou Hydrophide mince est une espèce de serpents marins de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophis gracilis ou Hydrophide mince est une espèce de serpents marins de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Habit et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le nord de l'océan Indien et l'ouest du océan Pacifique dans les eaux des Émirats arabes unis, du Sultanat d'Oman, de l'Iran, du Pakistan, de l'Inde, du Sri Lanka, du Bangladesh, de la Birmanie, de la Thaïlande, de la Malaisie, du Viêt Nam, de Chine, des Philippines, de l'Indonésie, de la Papouasie-Nouvelle-Guinée et du Queensland[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le nord de l'océan Indien et l'ouest du océan Pacifique dans les eaux des Émirats arabes unis, du Sultanat d'Oman, de l'Iran, du Pakistan, de l'Inde, du Sri Lanka, du Bangladesh, de la Birmanie, de la Thaïlande, de la Malaisie, du Viêt Nam, de Chine, des Philippines, de l'Indonésie, de la Papouasie-Nouvelle-Guinée et du Queensland.
 Elle vit le long des côtes , jusqu'à 5 km au large, sur les fonds sableux et dans les récifs coralliens.
 </t>
         </is>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hydrophide mince mesure de 70 cm à 1,10 m. Son corps mince, qui s'épaissit à partir du milieu, est brun olive à l'avant et gris-vert ou parfois jaune pâle-blanc à l'arrière, avec des barres ou taches jaunes.
 Il mange des poissons dont de petites murènes.
-Vivipare, la femelle met bas de 1 à 6 petits serpenteaux[2].
+Vivipare, la femelle met bas de 1 à 6 petits serpenteaux.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin gracilis, « fin », lui a été donné en référence à sa morphologie[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin gracilis, « fin », lui a été donné en référence à sa morphologie.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Shaw, 1802 : General Zoology, or Systematic Natural History, vol. 3, no 2, p. 313-615 (texte intégral).</t>
         </is>
